--- a/list_with_peds_CAD_codes.xlsx
+++ b/list_with_peds_CAD_codes.xlsx
@@ -4320,7 +4320,7 @@
         </is>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106">
